--- a/Unity/Assets/Config/Excel/Datas/Battle/BuffActionControlConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/BuffActionControlConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF577252-B6AD-49AE-A2D0-00C452604C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E8DDB7-02F8-4391-970F-D6B2D2409047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -136,12 +136,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -152,21 +167,21 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,12 +460,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
@@ -461,40 +476,40 @@
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -504,12 +519,12 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -520,13 +535,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="4"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
